--- a/maintenance/TowerAlignment_Maintenance_Tracker_Template.xlsx
+++ b/maintenance/TowerAlignment_Maintenance_Tracker_Template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>Last Done Furnace Hours</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Last_Done_Draw</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -603,7 +608,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -612,6 +617,7 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -681,7 +687,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -690,6 +696,7 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -759,7 +766,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -768,6 +775,7 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,7 +845,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -846,6 +854,7 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -915,7 +924,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -924,6 +933,7 @@
       <c r="T6" t="n">
         <v>0</v>
       </c>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -993,7 +1003,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -1002,6 +1012,7 @@
       <c r="T7" t="n">
         <v>0</v>
       </c>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1071,7 +1082,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1080,6 +1091,7 @@
       <c r="T8" t="n">
         <v>0</v>
       </c>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1149,7 +1161,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1158,6 +1170,7 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1227,7 +1240,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1236,6 +1249,7 @@
       <c r="T10" t="n">
         <v>0</v>
       </c>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1305,7 +1319,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1314,6 +1328,7 @@
       <c r="T11" t="n">
         <v>0</v>
       </c>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1398,6 +1413,7 @@
       <c r="T12" t="n">
         <v>0</v>
       </c>
+      <c r="U12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/maintenance/TowerAlignment_Maintenance_Tracker_Template.xlsx
+++ b/maintenance/TowerAlignment_Maintenance_Tracker_Template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,11 @@
           <t>Last_Done_Draw</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Tracking_Mode_norm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -618,6 +623,11 @@
         <v>0</v>
       </c>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -697,6 +707,11 @@
         <v>0</v>
       </c>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -766,7 +781,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -776,6 +791,11 @@
         <v>0</v>
       </c>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -855,6 +875,11 @@
         <v>0</v>
       </c>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -934,6 +959,11 @@
         <v>0</v>
       </c>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1013,6 +1043,11 @@
         <v>0</v>
       </c>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1092,6 +1127,11 @@
         <v>0</v>
       </c>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1171,6 +1211,11 @@
         <v>0</v>
       </c>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1250,6 +1295,11 @@
         <v>0</v>
       </c>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1329,6 +1379,11 @@
         <v>0</v>
       </c>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1414,6 +1469,11 @@
         <v>0</v>
       </c>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>calendar</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
